--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N2">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q2">
-        <v>20.47842939561955</v>
+        <v>31.31893347285022</v>
       </c>
       <c r="R2">
-        <v>184.305864560576</v>
+        <v>281.870401255652</v>
       </c>
       <c r="S2">
-        <v>0.02395169755024385</v>
+        <v>0.03598305592682585</v>
       </c>
       <c r="T2">
-        <v>0.02395169755024385</v>
+        <v>0.03598305592682585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q3">
         <v>6.873713277297778</v>
@@ -632,10 +632,10 @@
         <v>61.86341949568</v>
       </c>
       <c r="S3">
-        <v>0.008039537519422683</v>
+        <v>0.007897370116271141</v>
       </c>
       <c r="T3">
-        <v>0.008039537519422685</v>
+        <v>0.007897370116271143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q4">
         <v>574.8356376973858</v>
@@ -694,10 +694,10 @@
         <v>5173.520739276472</v>
       </c>
       <c r="S4">
-        <v>0.6723313135613049</v>
+        <v>0.6604421225878745</v>
       </c>
       <c r="T4">
-        <v>0.672331313561305</v>
+        <v>0.6604421225878745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N5">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q5">
-        <v>8.596927392863998</v>
+        <v>13.147814799978</v>
       </c>
       <c r="R5">
-        <v>77.37234653577599</v>
+        <v>118.330333199802</v>
       </c>
       <c r="S5">
-        <v>0.01005501939613252</v>
+        <v>0.01510583224914977</v>
       </c>
       <c r="T5">
-        <v>0.01005501939613252</v>
+        <v>0.01510583224914976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q6">
         <v>2.88561260352</v>
@@ -818,10 +818,10 @@
         <v>25.97051343168</v>
       </c>
       <c r="S6">
-        <v>0.003375030330278497</v>
+        <v>0.003315347880081059</v>
       </c>
       <c r="T6">
-        <v>0.003375030330278497</v>
+        <v>0.003315347880081059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q7">
         <v>241.318323033708</v>
@@ -880,10 +880,10 @@
         <v>2171.864907303372</v>
       </c>
       <c r="S7">
-        <v>0.2822474016426175</v>
+        <v>0.2772562712397977</v>
       </c>
       <c r="T7">
-        <v>0.2822474016426175</v>
+        <v>0.2772562712397977</v>
       </c>
     </row>
   </sheetData>
